--- a/Experimental_data.xlsx
+++ b/Experimental_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02FF00BC61BFEC36/2025-1/Ipre_Biosistemas/2025/Conditions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02ff00bc61bfec36/2025-1/Ipre_Biosistemas/2025/Mycobacterium-smegmatis-model-calibration-and-validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_BA2C92B9EF102C74C4E8F591E169C9EFFA029992" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D6DDBF-5C1F-414C-AE4B-2D8DAE502C43}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_BA2C92B9EF102C74C4E8F591E169C9EFFA029992" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FBF2392-61AC-4454-B4A0-380ADCEBEA71}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" tabRatio="892" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" tabRatio="892" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PE_Normal" sheetId="1" r:id="rId1"/>
@@ -47,16 +47,7 @@
     <t>Time (hours)</t>
   </si>
   <si>
-    <t>Biomass (g/L)</t>
-  </si>
-  <si>
     <t>SE</t>
-  </si>
-  <si>
-    <t>Glycerol (g/L)</t>
-  </si>
-  <si>
-    <t>Ammonia (g/L)</t>
   </si>
   <si>
     <t>pH</t>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>CO2</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ammonia (g/L)</c:v>
+                  <c:v>N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,49 +1473,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1996,8 +1996,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,31 +2011,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2368,7 +2368,7 @@
         <v>0.98710320861612477</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2396,49 +2396,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>3.743978389823804E-7</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,49 +2932,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>1.2589254117941658E-5</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3455,49 +3455,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>3.28599324760064E-7</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3978,49 +3978,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4473,7 +4473,7 @@
         <v>3.8904514499428046E-5</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4488,8 +4488,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4503,31 +4503,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4868,31 +4868,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
         <v>0.99983806462807412</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5241,7 +5241,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,31 +5257,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,7 +5614,7 @@
         <v>0.99988566214587737</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5644,31 +5644,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6001,7 +6001,7 @@
         <v>0.99722384816265508</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
